--- a/saw.xlsx
+++ b/saw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\public_html\app\kejaksaan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pengadilan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>nama</t>
   </si>
@@ -72,13 +72,53 @@
   </si>
   <si>
     <t>pemeringkatan</t>
+  </si>
+  <si>
+    <t>Tom Holland</t>
+  </si>
+  <si>
+    <t>Elizabeth Olsen</t>
+  </si>
+  <si>
+    <t>Cris Evans</t>
+  </si>
+  <si>
+    <t>Tom Hiddleson</t>
+  </si>
+  <si>
+    <t>Bagus adi</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +126,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF858796"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,15 +168,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E6F0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E6F0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E6F0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E6F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,17 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,7 +790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -700,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -712,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -724,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -736,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -748,76 +850,601 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
         <f>SUM(C25:C31)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>SUM(E25:E30)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:C29" si="6">15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
         <f>15/100</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C29" si="6">15/100</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <f>10/100</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <f>15/100</f>
         <v>0.15</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <f>(E33*$E$25/100)+(F33*$E$26/100)+(G33*$E$27/100)+(H33*$E$28/100)+(I33*$E$29/100)+(J33*$E$30/100)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0.8</v>
+      </c>
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>0.8</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" ref="K34:K36" si="7">(E34*$E$25/100)+(F34*$E$26/100)+(G34*$E$27/100)+(H34*$E$28/100)+(I34*$E$29/100)+(J34*$E$30/100)</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0.6</v>
+      </c>
+      <c r="F35">
+        <v>0.6</v>
+      </c>
+      <c r="G35">
+        <v>0.6</v>
+      </c>
+      <c r="H35">
+        <v>0.6</v>
+      </c>
+      <c r="I35">
+        <v>0.6</v>
+      </c>
+      <c r="J35">
+        <v>0.33</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="7"/>
+        <v>0.57300000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.4</v>
+      </c>
+      <c r="F36">
+        <v>0.4</v>
+      </c>
+      <c r="G36">
+        <v>0.4</v>
+      </c>
+      <c r="H36">
+        <v>0.4</v>
+      </c>
+      <c r="I36">
+        <v>0.4</v>
+      </c>
+      <c r="J36">
+        <v>0.25</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <f>(B39*$C$25)+(C39*$C$26)+(D39*$C$27)+(E39*$C$28)+(F39*$C$29)+(G39*$C$30)+(H39*$C$31)</f>
+        <v>0.91300000000000014</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="I40:I43" si="8">(B40*$C$25)+(C40*$C$26)+(D40*$C$27)+(E40*$C$28)+(F40*$C$29)+(G40*$C$30)+(H40*$C$31)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="8"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="8"/>
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="8"/>
+        <v>0.61299999999999988</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I45" s="9">
+        <f>(B45*$C$25)+(C45*$C$26)+(D45*$C$27)+(E45*$C$28)+(F45*$C$29)+(G45*$C$30)+(H45*$C$31)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" ref="I46:I49" si="9">(B46*$C$25)+(C46*$C$26)+(D46*$C$27)+(E46*$C$28)+(F46*$C$29)+(G46*$C$30)+(H46*$C$31)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="9"/>
+        <v>0.81300000000000017</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="9"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="4">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="9"/>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>